--- a/src/main/resources/Excel.xlsx
+++ b/src/main/resources/Excel.xlsx
@@ -171,7 +171,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>99000.0</v>
+        <v>96500.0</v>
       </c>
     </row>
   </sheetData>
